--- a/Products with Python/Forerunner 165/PR/FR165_FFP_PR_60.0_-41.17.xlsx
+++ b/Products with Python/Forerunner 165/PR/FR165_FFP_PR_60.0_-41.17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Forerunner 165\PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C3A562-5BF9-4204-A41E-F0855A9E8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB827D4-5717-4268-9F08-AFB3B0DF2F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="rawdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR_45degree_0.51%_total72.15'!$A$1:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PR_45degree_0.51%_total72.15'!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="303">
   <si>
     <t>ItemNameType</t>
   </si>
@@ -911,12 +911,84 @@
     <t>PTC resistance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Conducted GPS Sensitivity C/No L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以後不檢測NFC天線的 for Felica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USL是6
+因reflow兩次可以減少阻，所以NPI認為flux多是主因
+SMT會縮小鋼板開口，減少Flux
+會去T5再跑一個量驗證</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機台綠膠帶貼到ALS上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具上USB跟機台不密合
+TD-AE會做cycle test檢測</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revise PRNP fixture, validated in T1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First intorudced in PR, so spec is still fine tune. EE will explore final spec before build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是因為SG忘記打開
+ATE治具雙port，造成雙峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免廠商沒有設定，會後DE與EE會再討論規格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE已經處理好了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同電池電壓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>頻譜(區分music/non-music)，也只是蒐集資料，量產不會有此測項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機台需重開機後(新增在鎖螺絲站)，軟體才會更新到正確的版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是AutoChamber USB連線問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際NG 4台
+1台mainseal漏，起因是點膠時治具未復歸。已修改程式賦歸功能
+2台Bezel漏水 起始點缺膠
+1尚未拆開分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +1007,36 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -974,10 +1076,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,6 +1103,324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>420730</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474913</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>43037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B61DAAC-A600-4354-8987-8B9177753AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="420730" y="8150749"/>
+          <a:ext cx="8061206" cy="6231744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>595061</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5501302</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>89136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A155D24-B3D3-4880-9017-D9FF83AD1328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8605586" y="8902564"/>
+          <a:ext cx="9392516" cy="5988423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4800854</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368722</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>163603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43621D21-40BB-44B1-8E39-8EE88E4B04C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18154904" y="2566705"/>
+          <a:ext cx="14541668" cy="5997949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>478797</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>167221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468444</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>7029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EB6810-796D-45CD-B85B-E3FCE592AED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="478797" y="14084927"/>
+          <a:ext cx="7992596" cy="6092690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599413</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4505529</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>21597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE710962-EE08-83F8-53C0-9056D2A7603E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8600413" y="8836143"/>
+          <a:ext cx="8394072" cy="6100483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6802824</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>34818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE43A31-1308-C2C9-51A1-708F1A257EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="246530" y="21492482"/>
+          <a:ext cx="19047651" cy="11566871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6222C8-384B-157B-14D9-F6FF0B95A527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="542925"/>
+          <a:ext cx="8001000" cy="6048375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,10 +2222,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G37"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1806,12 +2234,13 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="193.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="8" max="8" width="193.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,10 +2260,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18734</v>
       </c>
@@ -1844,7 +2276,7 @@
       <c r="C2">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
@@ -1853,11 +2285,14 @@
       <c r="F2">
         <v>7.26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18825</v>
       </c>
@@ -1867,7 +2302,7 @@
       <c r="C3">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
@@ -1877,10 +2312,13 @@
         <v>3.96</v>
       </c>
       <c r="G3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18828</v>
       </c>
@@ -1890,7 +2328,7 @@
       <c r="C4">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E4" t="s">
@@ -1899,11 +2337,14 @@
       <c r="F4">
         <v>2.91</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18828</v>
       </c>
@@ -1913,7 +2354,7 @@
       <c r="C5">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
@@ -1923,10 +2364,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8837</v>
       </c>
@@ -1945,8 +2389,11 @@
       <c r="F6">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18834</v>
       </c>
@@ -1956,7 +2403,7 @@
       <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E7" t="s">
@@ -1966,10 +2413,13 @@
         <v>1.99</v>
       </c>
       <c r="G7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18834</v>
       </c>
@@ -1979,7 +2429,7 @@
       <c r="C8">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E8" t="s">
@@ -1988,11 +2438,14 @@
       <c r="F8">
         <v>1.99</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18824</v>
       </c>
@@ -2002,7 +2455,7 @@
       <c r="C9">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E9" t="s">
@@ -2012,10 +2465,13 @@
         <v>1.98</v>
       </c>
       <c r="G9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18822</v>
       </c>
@@ -2035,10 +2491,13 @@
         <v>1.88</v>
       </c>
       <c r="G10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18734</v>
       </c>
@@ -2048,8 +2507,8 @@
       <c r="C11">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>83</v>
+      <c r="D11" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
@@ -2057,11 +2516,14 @@
       <c r="F11">
         <v>1.71</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18825</v>
       </c>
@@ -2071,7 +2533,7 @@
       <c r="C12">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
@@ -2081,10 +2543,13 @@
         <v>1.7</v>
       </c>
       <c r="G12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18735</v>
       </c>
@@ -2103,11 +2568,11 @@
       <c r="F13">
         <v>1.7</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18822</v>
       </c>
@@ -2117,7 +2582,7 @@
       <c r="C14">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E14" t="s">
@@ -2127,10 +2592,13 @@
         <v>1.5</v>
       </c>
       <c r="G14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18825</v>
       </c>
@@ -2140,7 +2608,7 @@
       <c r="C15">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
@@ -2150,10 +2618,13 @@
         <v>1.32</v>
       </c>
       <c r="G15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18825</v>
       </c>
@@ -2172,11 +2643,11 @@
       <c r="F16">
         <v>1.32</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8837</v>
       </c>
@@ -2196,7 +2667,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18735</v>
       </c>
@@ -2215,11 +2686,11 @@
       <c r="F18">
         <v>1.28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18734</v>
       </c>
@@ -2239,10 +2710,13 @@
         <v>1.2</v>
       </c>
       <c r="G19" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18834</v>
       </c>
@@ -2261,11 +2735,11 @@
       <c r="F20">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18734</v>
       </c>
@@ -2285,10 +2759,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="H21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18823</v>
       </c>
@@ -2308,10 +2785,13 @@
         <v>1.04</v>
       </c>
       <c r="G22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8837</v>
       </c>
@@ -2331,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18825</v>
       </c>
@@ -2351,7 +2831,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18824</v>
       </c>
@@ -2371,7 +2851,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18825</v>
       </c>
@@ -2391,7 +2871,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18827</v>
       </c>
@@ -2411,7 +2891,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18822</v>
       </c>
@@ -2431,7 +2911,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18827</v>
       </c>
@@ -2451,7 +2931,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18734</v>
       </c>
@@ -2471,7 +2951,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18825</v>
       </c>
@@ -2491,7 +2971,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18834</v>
       </c>
@@ -2612,9 +3092,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G37" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="Airtight_table"/>
+        <filter val="FR165_AutoCT"/>
+        <filter val="FR165_AutoRT1"/>
+        <filter val="FR165_Baro"/>
+        <filter val="FR165_FT2"/>
+        <filter val="FR165_FT3"/>
+        <filter val="FR165_RT2"/>
+        <filter val="FR165_RT3"/>
+        <filter val="FR165_RTESN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2622,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3284,7 +3779,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3399,7 +3894,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3481,6 +3976,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
